--- a/string-matching/String-Matching.xlsx
+++ b/string-matching/String-Matching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\testing\string-matching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3635A161-ED4F-48FE-8C27-D0632F520437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAB481C-83B9-4486-83CB-49A67B44AD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="6525" windowWidth="20820" windowHeight="14205" xr2:uid="{13FAB3C0-1938-4856-91B4-E6F7B34815AB}"/>
+    <workbookView xWindow="12930" yWindow="6345" windowWidth="20820" windowHeight="14205" xr2:uid="{13FAB3C0-1938-4856-91B4-E6F7B34815AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1509,13 +1509,13 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.75</c:v>
+                  <c:v>0.188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8420000000000001</c:v>
+                  <c:v>3.044</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0369999999999999</c:v>
+                  <c:v>1.1200000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3834,8 +3834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFE9725-6A3F-4500-A0CA-E5F977FD8912}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4015,13 +4015,13 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1.75</v>
+        <v>0.188</v>
       </c>
       <c r="B5" s="1">
-        <v>2.8420000000000001</v>
+        <v>3.044</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0369999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E5" s="1">
         <v>0.251</v>
@@ -4158,15 +4158,15 @@
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>AVERAGE(A4:A6)</f>
-        <v>0.71733333333333338</v>
+        <v>0.19666666666666668</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" ref="B7:C7" si="0">AVERAGE(B4:B6)</f>
-        <v>2.8010000000000002</v>
+        <v>2.8683333333333336</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>1.0253333333333332</v>
+        <v>1.0529999999999999</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ref="E7" si="1">AVERAGE(E4:E6)</f>
@@ -4177,11 +4177,11 @@
         <v>6.4419236666666668</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ref="G7:N7" si="2">AVERAGE(G4:G6)</f>
+        <f>AVERAGE(G4:G6)</f>
         <v>2.7769999999999997</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G7:N7" si="2">AVERAGE(H4:H6)</f>
         <v>3.7363123666666667</v>
       </c>
       <c r="I7" s="1">
